--- a/biology/Zoologie/Chalcothore_montgomeryi/Chalcothore_montgomeryi.xlsx
+++ b/biology/Zoologie/Chalcothore_montgomeryi/Chalcothore_montgomeryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcothore montgomeryi est une espèce d'odonates du sous-ordre des Zygoptera[2] (demoiselles) et de la famille des Polythoridae. C'est la seule espèce du  genre Chalcothore (monotypique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcothore montgomeryi est une espèce d'odonates du sous-ordre des Zygoptera (demoiselles) et de la famille des Polythoridae. C'est la seule espèce du  genre Chalcothore (monotypique).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcothore montgomeryi se rencontre au Venezuela[1]. Cette espèce fréquente les petites rivières et ruisseaux forestiers. La larve vit sous les pierres, dans les portions à débit plus rapide[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcothore montgomeryi se rencontre au Venezuela. Cette espèce fréquente les petites rivières et ruisseaux forestiers. La larve vit sous les pierres, dans les portions à débit plus rapide.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Chalcothore :
 (en) J. De Marmels, « Generic characters of Chalcothore De Marmels, 1985, with notes on the male of C. montgomeryi (Racenis, 1968) and a description of the larva (Zygoptera: Polythoridae) », Odonatologica, Societas Internationalis Odonatologica (d), vol. 17, no 4,‎ 1988, p. 379-384 (ISSN 0375-0183 et 0375-0183, lire en ligne)
